--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="17">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>GA</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -403,9 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,22 +421,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>1.68</v>
@@ -464,13 +464,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>1.59</v>
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>1.7</v>
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
@@ -524,13 +524,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>1.76</v>
@@ -544,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>1.6</v>
@@ -564,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>1.84</v>
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>1.88</v>
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>1.9</v>
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>1.68</v>
@@ -644,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1.76</v>
@@ -664,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
         <v>1.91</v>
@@ -684,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>1.68</v>
@@ -704,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>1.7</v>
@@ -724,13 +724,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <v>1.76</v>
@@ -744,13 +744,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1">
         <v>1.65</v>
@@ -764,13 +764,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
         <v>1.58</v>
@@ -784,13 +784,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>1.87</v>
@@ -804,13 +804,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <v>1.75</v>
@@ -824,13 +824,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1">
         <v>1.69</v>
@@ -844,13 +844,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>1.74</v>
@@ -864,13 +864,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
         <v>1.65</v>
@@ -884,13 +884,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>1.6</v>
@@ -904,13 +904,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
         <v>1.7</v>
@@ -924,13 +924,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>1.75</v>
@@ -944,13 +944,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <v>1.76</v>
@@ -964,13 +964,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1">
         <v>1.58</v>
@@ -984,13 +984,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1">
         <v>1.73</v>
@@ -1004,13 +1004,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
         <v>1.65</v>
@@ -1024,13 +1024,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
         <v>1.75</v>
@@ -1044,13 +1044,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>1.76</v>
@@ -1064,13 +1064,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1">
         <v>1.75</v>
@@ -1084,13 +1084,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
         <v>1.75</v>
@@ -1104,13 +1104,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
         <v>1.77</v>
@@ -1124,13 +1124,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
         <v>1.77</v>
@@ -1144,13 +1144,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
         <v>1.69</v>
@@ -1164,13 +1164,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
         <v>1.64</v>
@@ -1184,13 +1184,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1">
         <v>1.74</v>
@@ -1204,13 +1204,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
         <v>1.78</v>
@@ -1224,13 +1224,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1">
         <v>1.71</v>
@@ -1244,13 +1244,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
         <v>1.58</v>
@@ -1264,13 +1264,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
         <v>1.9</v>
@@ -1284,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
         <v>1.9</v>
@@ -1304,13 +1304,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
         <v>1.8</v>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="17">
   <si>
     <t>F</t>
   </si>
@@ -53,9 +53,6 @@
     <t>altura</t>
   </si>
   <si>
-    <t>idade</t>
-  </si>
-  <si>
     <t>nao_consome</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>idade_anos</t>
   </si>
 </sst>
 </file>
@@ -401,27 +401,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -430,13 +430,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>1.68</v>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>1.59</v>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>1.7</v>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>1.76</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>1.6</v>
@@ -567,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>1.84</v>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>1.88</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>1.9</v>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>1.68</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>1.76</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>1.91</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>1.68</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1.7</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>1.76</v>
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>1.65</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <v>1.58</v>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>1.87</v>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <v>1.75</v>
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
         <v>1.69</v>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
         <v>1.74</v>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
         <v>1.65</v>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1">
         <v>1.6</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1">
         <v>1.7</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>1.75</v>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <v>1.76</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>1.58</v>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1">
         <v>1.73</v>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <v>1.65</v>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <v>1.75</v>
@@ -1050,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1">
         <v>1.76</v>
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1">
         <v>1.75</v>
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
         <v>1.75</v>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <v>1.77</v>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>1.77</v>
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
         <v>1.69</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1">
         <v>1.64</v>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
         <v>1.74</v>
@@ -1210,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
         <v>1.78</v>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1">
         <v>1.71</v>
@@ -1250,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1">
         <v>1.58</v>
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1">
         <v>1.9</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1">
         <v>1.9</v>
@@ -1310,13 +1310,113 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1">
         <v>1.8</v>
       </c>
       <c r="F45" s="1">
         <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="F46" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="F47" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="F49" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
   <si>
     <t>F</t>
   </si>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" sqref="A1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>3</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>3</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>3</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>3</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>3</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>3</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>3</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>3</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>3</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>3</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>3</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>3</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>3</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>3</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>0</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>3</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>3</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>3</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>3</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>3</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>3</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>3</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>0</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>3</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>3</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>3</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>3</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>0</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>0</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>0</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>3</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
@@ -1837,6 +1837,26 @@
       </c>
       <c r="F70" s="3">
         <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="F71" s="3">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\estatinfo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\estatinfo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="18">
   <si>
     <t>F</t>
   </si>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,6 +1859,126 @@
         <v>19</v>
       </c>
     </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="F72" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="F73" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="F74" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F75" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="F76" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F77" s="3">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="18">
   <si>
     <t>F</t>
   </si>
@@ -68,9 +68,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Socialmente</t>
+  </si>
+  <si>
+    <t>grau_alcool</t>
   </si>
 </sst>
 </file>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -450,13 +450,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" s="3">
         <v>1.59</v>
@@ -1977,6 +1977,46 @@
       </c>
       <c r="F77" s="3">
         <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="F78" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="F79" s="3">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="18">
   <si>
     <t>F</t>
   </si>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,6 +2019,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F80" s="3">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\estatinfo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos R\estatistica-TP2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="17">
   <si>
     <t>F</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>idade_anos</t>
-  </si>
-  <si>
-    <t>Socialmente</t>
   </si>
   <si>
     <t>grau_alcool</t>
@@ -423,9 +420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -1510,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3">
         <v>1.59</v>

--- a/data/dados_turmas.xlsx
+++ b/data/dados_turmas.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos R\estatistica-TP2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\estatinfo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE13B6-C550-435A-B431-F9FA7F0E2D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
   <si>
     <t>F</t>
   </si>
@@ -53,34 +65,19 @@
     <t>altura</t>
   </si>
   <si>
-    <t>nao_consome</t>
-  </si>
-  <si>
-    <t>socialmente</t>
-  </si>
-  <si>
-    <t>pouco</t>
-  </si>
-  <si>
-    <t>mais_social</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>idade_anos</t>
   </si>
   <si>
-    <t>grau_alcool</t>
+    <t>cons_alcool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,13 +126,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,12 +414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,9 +433,9 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -447,16 +444,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -466,8 +463,8 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+      <c r="D2" s="3">
+        <v>4</v>
       </c>
       <c r="E2" s="3">
         <v>1.68</v>
@@ -476,7 +473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -486,8 +483,8 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>1.59</v>
@@ -495,8 +492,9 @@
       <c r="F3" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -504,39 +502,41 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
+      <c r="D5" s="3">
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -544,19 +544,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
       </c>
       <c r="E6" s="3">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="F6" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -564,19 +565,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="F7" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -584,19 +585,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -604,19 +605,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="F9" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -624,19 +625,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="F10" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -644,19 +645,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="F11" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -664,19 +665,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="F12" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -684,19 +685,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="F13" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -704,19 +705,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="F14" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -726,34 +727,34 @@
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="F15" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
+      <c r="D16" s="3">
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="F16" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="F17" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,16 +782,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="F18" s="3">
         <v>19</v>
@@ -806,14 +807,14 @@
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
+      <c r="D19" s="3">
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="F19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,19 +822,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="F20" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,19 +842,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="F21" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,19 +862,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="F22" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,11 +887,11 @@
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
+      <c r="D23" s="3">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="F23" s="3">
         <v>20</v>
@@ -904,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F24" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,16 +925,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="F25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,16 +942,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F26" s="3">
         <v>18</v>
@@ -961,19 +962,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="D27" s="3">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="F27" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,16 +982,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
+      <c r="D28" s="3">
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="F28" s="3">
         <v>19</v>
@@ -1006,11 +1007,11 @@
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="F29" s="3">
         <v>19</v>
@@ -1026,11 +1027,11 @@
       <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
+      <c r="D30" s="3">
+        <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="F30" s="3">
         <v>19</v>
@@ -1046,11 +1047,11 @@
       <c r="C31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>9</v>
+      <c r="D31" s="3">
+        <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F31" s="3">
         <v>19</v>
@@ -1066,11 +1067,11 @@
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="F32" s="3">
         <v>19</v>
@@ -1086,14 +1087,14 @@
       <c r="C33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
+      <c r="D33" s="3">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>1.75</v>
       </c>
       <c r="F33" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,11 +1107,11 @@
       <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
+      <c r="D34" s="3">
+        <v>2</v>
       </c>
       <c r="E34" s="3">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="F34" s="3">
         <v>23</v>
@@ -1126,14 +1127,14 @@
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
         <v>1.77</v>
       </c>
       <c r="F35" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,19 +1142,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="F36" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="F37" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,19 +1182,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
+      <c r="D38" s="3">
+        <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="F38" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,16 +1205,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
       </c>
       <c r="E39" s="3">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="F39" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,14 +1227,14 @@
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>12</v>
+      <c r="D40" s="3">
+        <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="F40" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,19 +1242,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
         <v>4</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E41" s="3">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="F41" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,19 +1262,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
+      <c r="D42" s="3">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="F42" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,16 +1285,16 @@
         <v>3</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>1.9</v>
       </c>
       <c r="F43" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,16 +1305,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F44" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,720 +1322,80 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
+      <c r="D45" s="3">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="F45" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="F46" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="F47" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="F48" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="F49" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="F50" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1.93</v>
-      </c>
-      <c r="F51" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="F52" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="F53" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1.59</v>
-      </c>
-      <c r="F54" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1.81</v>
-      </c>
-      <c r="F55" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="F56" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="F57" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F58" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="F59" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="F60" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1.74</v>
-      </c>
-      <c r="F61" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="F62" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="F63" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F64" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="F65" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="F66" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="F67" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1.74</v>
-      </c>
-      <c r="F68" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="F69" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F70" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1.64</v>
-      </c>
-      <c r="F71" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="F72" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1.67</v>
-      </c>
-      <c r="F73" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="F74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="F75" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="F76" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F77" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="F78" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="F79" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="F80" s="3">
-        <v>19</v>
-      </c>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
